--- a/site/public/pesquisaContexto/Resultados Pesquisa Leitura SPTECH.xlsx
+++ b/site/public/pesquisaContexto/Resultados Pesquisa Leitura SPTECH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USU\Desktop\SPTech\Projeto e Inovação\Projeto Individual\Lendo-pelo-Mundo\site\public\pesquisaContexto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD59E3B-983F-4C87-9859-D6AA05F5FF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA91041-D1FC-4073-B26A-99C4F7644207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
   <si>
     <t>Ricardo</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>Pedro Cruz</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -221,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -244,11 +250,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -262,17 +364,314 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -283,6 +682,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF016361-8DEF-4EED-A0BD-C57E29912B25}" name="Table1" displayName="Table1" ref="B2:F41" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <autoFilter ref="B2:F41" xr:uid="{CF016361-8DEF-4EED-A0BD-C57E29912B25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F41">
+    <sortCondition ref="D2:D41"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{EE7CB69A-5F48-40E4-A854-E95330DD6F3C}" name="Ricardo" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{610D6C78-4267-43FC-90B4-0C52B4C37876}" name="Masculino" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{3361DF78-4865-4FC3-AD2B-85DFF9E3286B}" name="1" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{2CF0E026-73A4-4FF7-AACE-8D7745D633F0}" name="0" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{28BB607F-45AA-4291-906E-F0F9B41CC2A2}" name="Não ficção - Auto-Ajuda" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -550,59 +966,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>27</v>
-      </c>
-      <c r="E3" s="4">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>6</v>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -610,46 +1026,44 @@
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5" s="7"/>
       <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -661,585 +1075,590 @@
       <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="2">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>6</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="4">
-        <v>3</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2">
-        <v>7</v>
-      </c>
-      <c r="E20" s="2">
-        <v>7</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2">
-        <v>10</v>
-      </c>
-      <c r="E22" s="2">
-        <v>3</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="23" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>32</v>
+      <c r="B23" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="1" t="s">
+    <row r="29" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="2">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2">
-        <v>7</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="D29" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="4">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2">
-        <v>2</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2">
-        <v>2</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
       <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>38</v>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E30" s="2">
-        <v>2</v>
-      </c>
-      <c r="F30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>6</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>7</v>
+      </c>
+      <c r="E35" s="2">
+        <v>7</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2">
+        <v>7</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="C38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="4">
         <v>10</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E38" s="4">
         <v>3</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F38" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="4">
-        <v>4</v>
-      </c>
-      <c r="E33" s="4">
-        <v>2</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="2">
-        <v>12</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="4">
-        <v>2</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-      <c r="C36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="2">
-        <v>2</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="4">
-        <v>5</v>
-      </c>
-      <c r="E37" s="4">
-        <v>2</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2">
-        <v>5</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="39" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>46</v>
+      <c r="B39" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E39" s="4">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>47</v>
+      <c r="B40" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>31</v>
+      <c r="F40" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="4">
-        <v>10</v>
-      </c>
-      <c r="E41" s="4">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>7</v>
+      <c r="B41" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="17">
+        <v>27</v>
+      </c>
+      <c r="E41" s="17">
+        <v>9</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>